--- a/biology/Zoologie/Dircenna_olyra/Dircenna_olyra.xlsx
+++ b/biology/Zoologie/Dircenna_olyra/Dircenna_olyra.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dircenna olyra est une espèce de lépidoptères (papillons) de la famille des Nymphalidae, de la sous-famille des Danainae et du genre  Dircenna.
 </t>
@@ -511,49 +523,52 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dircenna olyra a été décrit par Cajetan Freiherr von Felder et Rudolf Felder en 1855 sous le nom initial d' Ithonia olyra[1].
-Sous-espèces
-Dircenna olyra olyra ; présent en Colombie.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dircenna olyra a été décrit par Cajetan Freiherr von Felder et Rudolf Felder en 1855 sous le nom initial d' Ithonia olyra.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Dircenna_olyra</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dircenna_olyra</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Dircenna olyra olyra ; présent en Colombie.
 Dircenna olyra bairdii Reakirt, 1868 ; présent en Colombie.
 Dircenna olyra relata Butler &amp; Druce, 1872 ; présent au Costa Rica, au Nicaragua et à Panama.
 Dircenna olyra ssp ; présent à Panama.
-Dircenna olyra ssp ; présent en Équateur[1].
-Nom vernaculaire
-Dircenna olyra se nomme Olyra Clearwing en anglais[2].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Dircenna_olyra</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Dircenna_olyra</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dircenna olyra est un papillon au corps à abdomen mince, aux ailes à apex arrondi avec les ailes antérieures beaucoup plus longues que les ailes postérieures et à bord interne concave. Les ailes sont ocre translucides avec de fines et des taches plus claires aux ailes antérieures.
-</t>
+Dircenna olyra ssp ; présent en Équateur.</t>
         </is>
       </c>
     </row>
@@ -578,13 +593,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Plantes hôtes
-Les plantes hôtes de sa chenille sont des Solanum (Solanaceae)[3].
+          <t>Nom vernaculaire</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dircenna olyra se nomme Olyra Clearwing en anglais.
 </t>
         </is>
       </c>
@@ -610,16 +630,158 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dircenna olyra est un papillon au corps à abdomen mince, aux ailes à apex arrondi avec les ailes antérieures beaucoup plus longues que les ailes postérieures et à bord interne concave. Les ailes sont ocre translucides avec de fines et des taches plus claires aux ailes antérieures.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Dircenna_olyra</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dircenna_olyra</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de sa chenille sont des Solanum (Solanaceae).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Dircenna_olyra</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dircenna_olyra</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dircenna olyra est présent  au Costa Rica, au Nicaragua, à Panama, en Colombie et en Équateur[1].
-Biotope
-Dircenna olyra réside dans la forêt et les zones perturbées[3].
-Protection
-Pas de statut de protection particulier.
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dircenna olyra est présent  au Costa Rica, au Nicaragua, à Panama, en Colombie et en Équateur.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Dircenna_olyra</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dircenna_olyra</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dircenna olyra réside dans la forêt et les zones perturbées.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Dircenna_olyra</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dircenna_olyra</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 Sur les autres projets Wikimedia :
 Dircenna olyra, sur Wikimedia CommonsDircenna olyra, sur Wikispecies
 </t>
